--- a/Delivery Time Report Test Case/GreatOutdoor Delivery Time Report Sprint 2 Test Cases.xlsx
+++ b/Delivery Time Report Test Case/GreatOutdoor Delivery Time Report Sprint 2 Test Cases.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Test Cases</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;&lt;blank&gt;&gt;    </t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>TC_02</t>
@@ -179,9 +176,6 @@
     <t>Functional</t>
   </si>
   <si>
-    <t>"Delivery Time Report - ":Invalid Argument Recieved</t>
-  </si>
-  <si>
     <t>To validate  choice with all 4 as Special characters.</t>
   </si>
   <si>
@@ -204,6 +198,9 @@
   </si>
   <si>
     <t>To validate report type with 1.</t>
+  </si>
+  <si>
+    <t>Something Went wrong</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1034,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1126,243 +1123,243 @@
         <v>11</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="55.5" customHeight="1">
       <c r="B6" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="F6" s="22">
         <v>1234</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60.75" customHeight="1">
       <c r="B7" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="69" customHeight="1">
       <c r="B8" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="69" customHeight="1">
       <c r="B9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="F9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="72.75" customHeight="1">
       <c r="B10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="72.75" customHeight="1">
       <c r="B11" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="29">
         <v>1</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="62.25" customHeight="1">
       <c r="B12" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="F12" s="29">
         <v>2</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="62.25" customHeight="1">
       <c r="B13" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="F13" s="29">
         <v>3</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="62.25" customHeight="1">
